--- a/2024_전기공사_통합데이터.xlsx
+++ b/2024_전기공사_통합데이터.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>입찰공고번호</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>투찰률</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -525,7 +520,6 @@
         <v>99.726994</v>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -562,7 +556,6 @@
         <v>100.5963493333333</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -599,7 +592,6 @@
         <v>100</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,7 +628,6 @@
         <v>99.95027031345708</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -673,7 +664,6 @@
         <v>100</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -710,7 +700,6 @@
         <v>100</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -747,7 +736,6 @@
         <v>100</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -784,7 +772,6 @@
         <v>100</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -821,7 +808,6 @@
         <v>100.3702163265306</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -858,7 +844,6 @@
         <v>100</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -895,7 +880,6 @@
         <v>98.9695</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -932,7 +916,6 @@
         <v>98.30810423342891</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -969,7 +952,6 @@
         <v>99.34455336600981</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1006,7 +988,6 @@
         <v>99.88409183635622</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1036,7 +1017,9 @@
       <c r="G16" t="n">
         <v>87.745</v>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>87.7723</v>
+      </c>
       <c r="I16" t="n">
         <v>100.81271</v>
       </c>
@@ -1045,9 +1028,6 @@
           <t>2024000-00</t>
         </is>
       </c>
-      <c r="K16" t="n">
-        <v>87.7723</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1077,7 +1057,9 @@
       <c r="G17" t="n">
         <v>87.745</v>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>87.8395</v>
+      </c>
       <c r="I17" t="n">
         <v>99.76314000000001</v>
       </c>
@@ -1086,9 +1068,6 @@
           <t>2024001-00</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>87.8395</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1118,7 +1097,9 @@
       <c r="G18" t="n">
         <v>87.745</v>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>87.7891</v>
+      </c>
       <c r="I18" t="n">
         <v>99.89062</v>
       </c>
@@ -1127,9 +1108,6 @@
           <t>2024002-00</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>87.7891</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1159,7 +1137,9 @@
       <c r="G19" t="n">
         <v>87.745</v>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>87.8112</v>
+      </c>
       <c r="I19" t="n">
         <v>100.09498</v>
       </c>
@@ -1168,9 +1148,6 @@
           <t>2024003-00</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>87.8112</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1200,7 +1177,9 @@
       <c r="G20" t="n">
         <v>87.745</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>87.75369999999999</v>
+      </c>
       <c r="I20" t="n">
         <v>99.89833</v>
       </c>
@@ -1209,9 +1188,6 @@
           <t>2024004-00</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>87.75369999999999</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1241,7 +1217,9 @@
       <c r="G21" t="n">
         <v>87.745</v>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>87.8043</v>
+      </c>
       <c r="I21" t="n">
         <v>100.18645</v>
       </c>
@@ -1250,9 +1228,6 @@
           <t>2024005-00</t>
         </is>
       </c>
-      <c r="K21" t="n">
-        <v>87.8043</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1282,7 +1257,9 @@
       <c r="G22" t="n">
         <v>87.745</v>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>87.7551</v>
+      </c>
       <c r="I22" t="n">
         <v>100.15766</v>
       </c>
@@ -1291,9 +1268,6 @@
           <t>2024006-00</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>87.7551</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1323,7 +1297,9 @@
       <c r="G23" t="n">
         <v>87.745</v>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>87.8747</v>
+      </c>
       <c r="I23" t="n">
         <v>99.84593</v>
       </c>
@@ -1332,9 +1308,6 @@
           <t>2024007-00</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>87.8747</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1364,7 +1337,9 @@
       <c r="G24" t="n">
         <v>87.745</v>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>87.764</v>
+      </c>
       <c r="I24" t="n">
         <v>100.04112</v>
       </c>
@@ -1373,9 +1348,6 @@
           <t>2024008-00</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>87.764</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1405,7 +1377,9 @@
       <c r="G25" t="n">
         <v>87.745</v>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>87.7739</v>
+      </c>
       <c r="I25" t="n">
         <v>99.62965</v>
       </c>
@@ -1414,9 +1388,6 @@
           <t>2024009-00</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>87.7739</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1446,7 +1417,9 @@
       <c r="G26" t="n">
         <v>87.745</v>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>87.758</v>
+      </c>
       <c r="I26" t="n">
         <v>100.14446</v>
       </c>
@@ -1455,9 +1428,6 @@
           <t>2024010-00</t>
         </is>
       </c>
-      <c r="K26" t="n">
-        <v>87.758</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1487,7 +1457,9 @@
       <c r="G27" t="n">
         <v>87.745</v>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>87.8527</v>
+      </c>
       <c r="I27" t="n">
         <v>100.33108</v>
       </c>
@@ -1496,9 +1468,6 @@
           <t>2024011-00</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>87.8527</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1528,7 +1497,9 @@
       <c r="G28" t="n">
         <v>87.745</v>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>87.8057</v>
+      </c>
       <c r="I28" t="n">
         <v>99.95053</v>
       </c>
@@ -1537,9 +1508,6 @@
           <t>2024012-00</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>87.8057</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1569,7 +1537,9 @@
       <c r="G29" t="n">
         <v>87.745</v>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>87.7568</v>
+      </c>
       <c r="I29" t="n">
         <v>100.64905</v>
       </c>
@@ -1578,9 +1548,6 @@
           <t>2024013-00</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>87.7568</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1610,7 +1577,9 @@
       <c r="G30" t="n">
         <v>87.745</v>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>87.77070000000001</v>
+      </c>
       <c r="I30" t="n">
         <v>100.11076</v>
       </c>
@@ -1619,9 +1588,6 @@
           <t>2024014-00</t>
         </is>
       </c>
-      <c r="K30" t="n">
-        <v>87.77070000000001</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1651,7 +1617,9 @@
       <c r="G31" t="n">
         <v>87.745</v>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>87.7713</v>
+      </c>
       <c r="I31" t="n">
         <v>99.92785000000001</v>
       </c>
@@ -1660,9 +1628,6 @@
           <t>2024015-00</t>
         </is>
       </c>
-      <c r="K31" t="n">
-        <v>87.7713</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1692,7 +1657,9 @@
       <c r="G32" t="n">
         <v>87.745</v>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>87.7487</v>
+      </c>
       <c r="I32" t="n">
         <v>100.12902</v>
       </c>
@@ -1701,9 +1668,6 @@
           <t>2024016-00</t>
         </is>
       </c>
-      <c r="K32" t="n">
-        <v>87.7487</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1733,7 +1697,9 @@
       <c r="G33" t="n">
         <v>87.745</v>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>87.94840000000001</v>
+      </c>
       <c r="I33" t="n">
         <v>99.90215999999999</v>
       </c>
@@ -1742,9 +1708,6 @@
           <t>2024017-00</t>
         </is>
       </c>
-      <c r="K33" t="n">
-        <v>87.94840000000001</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1774,7 +1737,9 @@
       <c r="G34" t="n">
         <v>87.745</v>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>87.8359</v>
+      </c>
       <c r="I34" t="n">
         <v>100.24502</v>
       </c>
@@ -1783,9 +1748,6 @@
           <t>2024018-00</t>
         </is>
       </c>
-      <c r="K34" t="n">
-        <v>87.8359</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1815,7 +1777,9 @@
       <c r="G35" t="n">
         <v>87.745</v>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>87.8676</v>
+      </c>
       <c r="I35" t="n">
         <v>98.8385</v>
       </c>
@@ -1824,9 +1788,6 @@
           <t>2024019-00</t>
         </is>
       </c>
-      <c r="K35" t="n">
-        <v>87.8676</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1856,7 +1817,9 @@
       <c r="G36" t="n">
         <v>87.745</v>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>87.8246</v>
+      </c>
       <c r="I36" t="n">
         <v>99.84372</v>
       </c>
@@ -1865,9 +1828,6 @@
           <t>2024020-00</t>
         </is>
       </c>
-      <c r="K36" t="n">
-        <v>87.8246</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1897,7 +1857,9 @@
       <c r="G37" t="n">
         <v>87.745</v>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>87.7478</v>
+      </c>
       <c r="I37" t="n">
         <v>99.89388</v>
       </c>
@@ -1906,9 +1868,6 @@
           <t>2024021-00</t>
         </is>
       </c>
-      <c r="K37" t="n">
-        <v>87.7478</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1938,7 +1897,9 @@
       <c r="G38" t="n">
         <v>87.745</v>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>87.8043</v>
+      </c>
       <c r="I38" t="n">
         <v>99.54358999999999</v>
       </c>
@@ -1947,9 +1908,6 @@
           <t>2024022-00</t>
         </is>
       </c>
-      <c r="K38" t="n">
-        <v>87.8043</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1979,7 +1937,9 @@
       <c r="G39" t="n">
         <v>87.745</v>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>87.8511</v>
+      </c>
       <c r="I39" t="n">
         <v>99.79841999999999</v>
       </c>
@@ -1988,9 +1948,6 @@
           <t>2024023-00</t>
         </is>
       </c>
-      <c r="K39" t="n">
-        <v>87.8511</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2020,7 +1977,9 @@
       <c r="G40" t="n">
         <v>87.745</v>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>87.7787</v>
+      </c>
       <c r="I40" t="n">
         <v>99.49787999999999</v>
       </c>
@@ -2029,9 +1988,6 @@
           <t>2024024-00</t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>87.7787</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2061,7 +2017,9 @@
       <c r="G41" t="n">
         <v>87.745</v>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>87.76300000000001</v>
+      </c>
       <c r="I41" t="n">
         <v>100.5399</v>
       </c>
@@ -2070,9 +2028,6 @@
           <t>2024025-00</t>
         </is>
       </c>
-      <c r="K41" t="n">
-        <v>87.76300000000001</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2102,7 +2057,9 @@
       <c r="G42" t="n">
         <v>87.745</v>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>87.81440000000001</v>
+      </c>
       <c r="I42" t="n">
         <v>99.29231</v>
       </c>
@@ -2111,9 +2068,6 @@
           <t>2024026-00</t>
         </is>
       </c>
-      <c r="K42" t="n">
-        <v>87.81440000000001</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2143,7 +2097,9 @@
       <c r="G43" t="n">
         <v>87.745</v>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>87.77290000000001</v>
+      </c>
       <c r="I43" t="n">
         <v>99.88789</v>
       </c>
@@ -2152,9 +2108,6 @@
           <t>2024027-00</t>
         </is>
       </c>
-      <c r="K43" t="n">
-        <v>87.77290000000001</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2184,7 +2137,9 @@
       <c r="G44" t="n">
         <v>87.745</v>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>87.7761</v>
+      </c>
       <c r="I44" t="n">
         <v>98.8811</v>
       </c>
@@ -2193,9 +2148,6 @@
           <t>2024028-00</t>
         </is>
       </c>
-      <c r="K44" t="n">
-        <v>87.7761</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2225,7 +2177,9 @@
       <c r="G45" t="n">
         <v>87.745</v>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>87.8052</v>
+      </c>
       <c r="I45" t="n">
         <v>100.41143</v>
       </c>
@@ -2234,9 +2188,6 @@
           <t>2024029-00</t>
         </is>
       </c>
-      <c r="K45" t="n">
-        <v>87.8052</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2266,7 +2217,9 @@
       <c r="G46" t="n">
         <v>87.745</v>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>87.8249</v>
+      </c>
       <c r="I46" t="n">
         <v>99.68001</v>
       </c>
@@ -2275,9 +2228,6 @@
           <t>2024030-00</t>
         </is>
       </c>
-      <c r="K46" t="n">
-        <v>87.8249</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2307,7 +2257,9 @@
       <c r="G47" t="n">
         <v>87.745</v>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>87.88760000000001</v>
+      </c>
       <c r="I47" t="n">
         <v>100.24517</v>
       </c>
@@ -2316,9 +2268,6 @@
           <t>2024031-00</t>
         </is>
       </c>
-      <c r="K47" t="n">
-        <v>87.88760000000001</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2348,7 +2297,9 @@
       <c r="G48" t="n">
         <v>87.745</v>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>87.7775</v>
+      </c>
       <c r="I48" t="n">
         <v>99.91475</v>
       </c>
@@ -2357,9 +2308,6 @@
           <t>2024032-00</t>
         </is>
       </c>
-      <c r="K48" t="n">
-        <v>87.7775</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2389,7 +2337,9 @@
       <c r="G49" t="n">
         <v>87.745</v>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>87.9597</v>
+      </c>
       <c r="I49" t="n">
         <v>100.19933</v>
       </c>
@@ -2398,9 +2348,6 @@
           <t>2024033-00</t>
         </is>
       </c>
-      <c r="K49" t="n">
-        <v>87.9597</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2430,7 +2377,9 @@
       <c r="G50" t="n">
         <v>87.745</v>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>87.7559</v>
+      </c>
       <c r="I50" t="n">
         <v>100.27397</v>
       </c>
@@ -2439,9 +2388,6 @@
           <t>2024034-00</t>
         </is>
       </c>
-      <c r="K50" t="n">
-        <v>87.7559</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2471,7 +2417,9 @@
       <c r="G51" t="n">
         <v>87.745</v>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>87.7539</v>
+      </c>
       <c r="I51" t="n">
         <v>100.13468</v>
       </c>
@@ -2480,9 +2428,6 @@
           <t>2024035-00</t>
         </is>
       </c>
-      <c r="K51" t="n">
-        <v>87.7539</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2512,7 +2457,9 @@
       <c r="G52" t="n">
         <v>87.745</v>
       </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>87.7688</v>
+      </c>
       <c r="I52" t="n">
         <v>99.79985000000001</v>
       </c>
@@ -2521,9 +2468,6 @@
           <t>2024036-00</t>
         </is>
       </c>
-      <c r="K52" t="n">
-        <v>87.7688</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2553,7 +2497,9 @@
       <c r="G53" t="n">
         <v>87.745</v>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>87.75230000000001</v>
+      </c>
       <c r="I53" t="n">
         <v>100.15815</v>
       </c>
@@ -2562,9 +2508,6 @@
           <t>2024037-00</t>
         </is>
       </c>
-      <c r="K53" t="n">
-        <v>87.75230000000001</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2594,7 +2537,9 @@
       <c r="G54" t="n">
         <v>87.745</v>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>87.8022</v>
+      </c>
       <c r="I54" t="n">
         <v>99.63435</v>
       </c>
@@ -2603,9 +2548,6 @@
           <t>2024038-00</t>
         </is>
       </c>
-      <c r="K54" t="n">
-        <v>87.8022</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2635,7 +2577,9 @@
       <c r="G55" t="n">
         <v>87.745</v>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>87.747</v>
+      </c>
       <c r="I55" t="n">
         <v>101.10313</v>
       </c>
@@ -2644,9 +2588,6 @@
           <t>2024039-00</t>
         </is>
       </c>
-      <c r="K55" t="n">
-        <v>87.747</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2676,7 +2617,9 @@
       <c r="G56" t="n">
         <v>87.745</v>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>87.7647</v>
+      </c>
       <c r="I56" t="n">
         <v>99.78214</v>
       </c>
@@ -2685,9 +2628,6 @@
           <t>2024040-00</t>
         </is>
       </c>
-      <c r="K56" t="n">
-        <v>87.7647</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2717,7 +2657,9 @@
       <c r="G57" t="n">
         <v>87.745</v>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>87.7731</v>
+      </c>
       <c r="I57" t="n">
         <v>100.00775</v>
       </c>
@@ -2726,9 +2668,6 @@
           <t>2024041-00</t>
         </is>
       </c>
-      <c r="K57" t="n">
-        <v>87.7731</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2758,7 +2697,9 @@
       <c r="G58" t="n">
         <v>87.745</v>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>87.7662</v>
+      </c>
       <c r="I58" t="n">
         <v>99.79727</v>
       </c>
@@ -2767,9 +2708,6 @@
           <t>2024042-00</t>
         </is>
       </c>
-      <c r="K58" t="n">
-        <v>87.7662</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2799,7 +2737,9 @@
       <c r="G59" t="n">
         <v>87.745</v>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>87.8496</v>
+      </c>
       <c r="I59" t="n">
         <v>100.5125</v>
       </c>
@@ -2808,9 +2748,6 @@
           <t>2024043-00</t>
         </is>
       </c>
-      <c r="K59" t="n">
-        <v>87.8496</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2840,7 +2777,9 @@
       <c r="G60" t="n">
         <v>87.745</v>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>87.8558</v>
+      </c>
       <c r="I60" t="n">
         <v>100.25135</v>
       </c>
@@ -2849,9 +2788,6 @@
           <t>2024044-00</t>
         </is>
       </c>
-      <c r="K60" t="n">
-        <v>87.8558</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2881,7 +2817,9 @@
       <c r="G61" t="n">
         <v>87.745</v>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>87.7521</v>
+      </c>
       <c r="I61" t="n">
         <v>99.8717</v>
       </c>
@@ -2890,9 +2828,6 @@
           <t>2024045-00</t>
         </is>
       </c>
-      <c r="K61" t="n">
-        <v>87.7521</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2922,7 +2857,9 @@
       <c r="G62" t="n">
         <v>87.745</v>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>87.8408</v>
+      </c>
       <c r="I62" t="n">
         <v>100.48422</v>
       </c>
@@ -2931,9 +2868,6 @@
           <t>2024046-00</t>
         </is>
       </c>
-      <c r="K62" t="n">
-        <v>87.8408</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2963,7 +2897,9 @@
       <c r="G63" t="n">
         <v>87.745</v>
       </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>87.79770000000001</v>
+      </c>
       <c r="I63" t="n">
         <v>99.91419999999999</v>
       </c>
@@ -2972,9 +2908,6 @@
           <t>2024047-00</t>
         </is>
       </c>
-      <c r="K63" t="n">
-        <v>87.79770000000001</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3004,7 +2937,9 @@
       <c r="G64" t="n">
         <v>87.745</v>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>87.82680000000001</v>
+      </c>
       <c r="I64" t="n">
         <v>99.99918</v>
       </c>
@@ -3013,9 +2948,6 @@
           <t>2024048-00</t>
         </is>
       </c>
-      <c r="K64" t="n">
-        <v>87.82680000000001</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3045,7 +2977,9 @@
       <c r="G65" t="n">
         <v>87.745</v>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>87.8086</v>
+      </c>
       <c r="I65" t="n">
         <v>99.99351</v>
       </c>
@@ -3054,9 +2988,6 @@
           <t>2024049-00</t>
         </is>
       </c>
-      <c r="K65" t="n">
-        <v>87.8086</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3086,7 +3017,9 @@
       <c r="G66" t="n">
         <v>87.745</v>
       </c>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>87.8282</v>
+      </c>
       <c r="I66" t="n">
         <v>100.50709</v>
       </c>
@@ -3095,9 +3028,6 @@
           <t>2024050-00</t>
         </is>
       </c>
-      <c r="K66" t="n">
-        <v>87.8282</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3127,7 +3057,9 @@
       <c r="G67" t="n">
         <v>87.745</v>
       </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>87.78</v>
+      </c>
       <c r="I67" t="n">
         <v>100.02882</v>
       </c>
@@ -3136,9 +3068,6 @@
           <t>2024051-00</t>
         </is>
       </c>
-      <c r="K67" t="n">
-        <v>87.78</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3168,7 +3097,9 @@
       <c r="G68" t="n">
         <v>87.745</v>
       </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>87.8467</v>
+      </c>
       <c r="I68" t="n">
         <v>99.87873999999999</v>
       </c>
@@ -3177,9 +3108,6 @@
           <t>2024052-00</t>
         </is>
       </c>
-      <c r="K68" t="n">
-        <v>87.8467</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3209,7 +3137,9 @@
       <c r="G69" t="n">
         <v>87.745</v>
       </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>87.7624</v>
+      </c>
       <c r="I69" t="n">
         <v>99.86044</v>
       </c>
@@ -3218,9 +3148,6 @@
           <t>2024053-00</t>
         </is>
       </c>
-      <c r="K69" t="n">
-        <v>87.7624</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3250,7 +3177,9 @@
       <c r="G70" t="n">
         <v>87.745</v>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>87.7724</v>
+      </c>
       <c r="I70" t="n">
         <v>99.78607</v>
       </c>
@@ -3259,9 +3188,6 @@
           <t>2024054-00</t>
         </is>
       </c>
-      <c r="K70" t="n">
-        <v>87.7724</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3291,7 +3217,9 @@
       <c r="G71" t="n">
         <v>87.745</v>
       </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>87.7642</v>
+      </c>
       <c r="I71" t="n">
         <v>100.78392</v>
       </c>
@@ -3300,9 +3228,6 @@
           <t>2024055-00</t>
         </is>
       </c>
-      <c r="K71" t="n">
-        <v>87.7642</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3332,7 +3257,9 @@
       <c r="G72" t="n">
         <v>87.745</v>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>87.78060000000001</v>
+      </c>
       <c r="I72" t="n">
         <v>100.12537</v>
       </c>
@@ -3341,9 +3268,6 @@
           <t>2024056-00</t>
         </is>
       </c>
-      <c r="K72" t="n">
-        <v>87.78060000000001</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3373,7 +3297,9 @@
       <c r="G73" t="n">
         <v>87.745</v>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>87.8057</v>
+      </c>
       <c r="I73" t="n">
         <v>100.00117</v>
       </c>
@@ -3382,9 +3308,6 @@
           <t>2024057-00</t>
         </is>
       </c>
-      <c r="K73" t="n">
-        <v>87.8057</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3414,7 +3337,9 @@
       <c r="G74" t="n">
         <v>87.745</v>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>87.7723</v>
+      </c>
       <c r="I74" t="n">
         <v>100.18448</v>
       </c>
@@ -3423,9 +3348,6 @@
           <t>2024058-00</t>
         </is>
       </c>
-      <c r="K74" t="n">
-        <v>87.7723</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3455,7 +3377,9 @@
       <c r="G75" t="n">
         <v>87.745</v>
       </c>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>87.77549999999999</v>
+      </c>
       <c r="I75" t="n">
         <v>99.52622</v>
       </c>
@@ -3464,9 +3388,6 @@
           <t>2024059-00</t>
         </is>
       </c>
-      <c r="K75" t="n">
-        <v>87.77549999999999</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3496,7 +3417,9 @@
       <c r="G76" t="n">
         <v>87.745</v>
       </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>87.8002</v>
+      </c>
       <c r="I76" t="n">
         <v>99.98793000000001</v>
       </c>
@@ -3505,9 +3428,6 @@
           <t>2024060-00</t>
         </is>
       </c>
-      <c r="K76" t="n">
-        <v>87.8002</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3537,7 +3457,9 @@
       <c r="G77" t="n">
         <v>87.745</v>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>87.7795</v>
+      </c>
       <c r="I77" t="n">
         <v>100.04883</v>
       </c>
@@ -3546,9 +3468,6 @@
           <t>2024061-00</t>
         </is>
       </c>
-      <c r="K77" t="n">
-        <v>87.7795</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3578,7 +3497,9 @@
       <c r="G78" t="n">
         <v>87.745</v>
       </c>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>87.78279999999999</v>
+      </c>
       <c r="I78" t="n">
         <v>100.15355</v>
       </c>
@@ -3587,9 +3508,6 @@
           <t>2024062-00</t>
         </is>
       </c>
-      <c r="K78" t="n">
-        <v>87.78279999999999</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3619,7 +3537,9 @@
       <c r="G79" t="n">
         <v>87.745</v>
       </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>87.81910000000001</v>
+      </c>
       <c r="I79" t="n">
         <v>100.2184</v>
       </c>
@@ -3628,9 +3548,6 @@
           <t>2024063-00</t>
         </is>
       </c>
-      <c r="K79" t="n">
-        <v>87.81910000000001</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3660,7 +3577,9 @@
       <c r="G80" t="n">
         <v>87.745</v>
       </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>87.8201</v>
+      </c>
       <c r="I80" t="n">
         <v>99.95056</v>
       </c>
@@ -3669,9 +3588,6 @@
           <t>2024064-00</t>
         </is>
       </c>
-      <c r="K80" t="n">
-        <v>87.8201</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3701,7 +3617,9 @@
       <c r="G81" t="n">
         <v>87.745</v>
       </c>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>87.748</v>
+      </c>
       <c r="I81" t="n">
         <v>100.05004</v>
       </c>
@@ -3710,9 +3628,6 @@
           <t>2024065-00</t>
         </is>
       </c>
-      <c r="K81" t="n">
-        <v>87.748</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3742,7 +3657,9 @@
       <c r="G82" t="n">
         <v>87.745</v>
       </c>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>87.7919</v>
+      </c>
       <c r="I82" t="n">
         <v>99.83374999999999</v>
       </c>
@@ -3751,9 +3668,6 @@
           <t>2024066-00</t>
         </is>
       </c>
-      <c r="K82" t="n">
-        <v>87.7919</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3783,7 +3697,9 @@
       <c r="G83" t="n">
         <v>87.745</v>
       </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>87.7863</v>
+      </c>
       <c r="I83" t="n">
         <v>100.6034</v>
       </c>
@@ -3792,9 +3708,6 @@
           <t>2024067-00</t>
         </is>
       </c>
-      <c r="K83" t="n">
-        <v>87.7863</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3824,7 +3737,9 @@
       <c r="G84" t="n">
         <v>87.745</v>
       </c>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>87.8659</v>
+      </c>
       <c r="I84" t="n">
         <v>99.85155</v>
       </c>
@@ -3833,9 +3748,6 @@
           <t>2024068-00</t>
         </is>
       </c>
-      <c r="K84" t="n">
-        <v>87.8659</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3865,7 +3777,9 @@
       <c r="G85" t="n">
         <v>87.745</v>
       </c>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>87.85550000000001</v>
+      </c>
       <c r="I85" t="n">
         <v>100.80864</v>
       </c>
@@ -3874,9 +3788,6 @@
           <t>2024069-00</t>
         </is>
       </c>
-      <c r="K85" t="n">
-        <v>87.85550000000001</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3906,7 +3817,9 @@
       <c r="G86" t="n">
         <v>87.745</v>
       </c>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>87.8244</v>
+      </c>
       <c r="I86" t="n">
         <v>99.74211</v>
       </c>
@@ -3915,9 +3828,6 @@
           <t>2024070-00</t>
         </is>
       </c>
-      <c r="K86" t="n">
-        <v>87.8244</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3947,7 +3857,9 @@
       <c r="G87" t="n">
         <v>87.745</v>
       </c>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>87.7919</v>
+      </c>
       <c r="I87" t="n">
         <v>99.08538</v>
       </c>
@@ -3956,9 +3868,6 @@
           <t>2024071-00</t>
         </is>
       </c>
-      <c r="K87" t="n">
-        <v>87.7919</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3988,7 +3897,9 @@
       <c r="G88" t="n">
         <v>87.745</v>
       </c>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>87.7831</v>
+      </c>
       <c r="I88" t="n">
         <v>99.64097</v>
       </c>
@@ -3997,9 +3908,6 @@
           <t>2024072-00</t>
         </is>
       </c>
-      <c r="K88" t="n">
-        <v>87.7831</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4029,7 +3937,9 @@
       <c r="G89" t="n">
         <v>87.745</v>
       </c>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>87.7509</v>
+      </c>
       <c r="I89" t="n">
         <v>99.88627</v>
       </c>
@@ -4038,9 +3948,6 @@
           <t>2024073-00</t>
         </is>
       </c>
-      <c r="K89" t="n">
-        <v>87.7509</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4070,7 +3977,9 @@
       <c r="G90" t="n">
         <v>87.745</v>
       </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>87.96469999999999</v>
+      </c>
       <c r="I90" t="n">
         <v>99.95296</v>
       </c>
@@ -4079,9 +3988,6 @@
           <t>2024074-00</t>
         </is>
       </c>
-      <c r="K90" t="n">
-        <v>87.96469999999999</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4111,7 +4017,9 @@
       <c r="G91" t="n">
         <v>87.745</v>
       </c>
-      <c r="H91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>87.9233</v>
+      </c>
       <c r="I91" t="n">
         <v>99.86138</v>
       </c>
@@ -4120,9 +4028,6 @@
           <t>2024075-00</t>
         </is>
       </c>
-      <c r="K91" t="n">
-        <v>87.9233</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4152,7 +4057,9 @@
       <c r="G92" t="n">
         <v>87.745</v>
       </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>87.7877</v>
+      </c>
       <c r="I92" t="n">
         <v>99.71227</v>
       </c>
@@ -4161,9 +4068,6 @@
           <t>2024076-00</t>
         </is>
       </c>
-      <c r="K92" t="n">
-        <v>87.7877</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4193,7 +4097,9 @@
       <c r="G93" t="n">
         <v>87.745</v>
       </c>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>87.80110000000001</v>
+      </c>
       <c r="I93" t="n">
         <v>99.82532</v>
       </c>
@@ -4202,9 +4108,6 @@
           <t>2024077-00</t>
         </is>
       </c>
-      <c r="K93" t="n">
-        <v>87.80110000000001</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4234,7 +4137,9 @@
       <c r="G94" t="n">
         <v>87.745</v>
       </c>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>87.75879999999999</v>
+      </c>
       <c r="I94" t="n">
         <v>100.25944</v>
       </c>
@@ -4243,9 +4148,6 @@
           <t>2024078-00</t>
         </is>
       </c>
-      <c r="K94" t="n">
-        <v>87.75879999999999</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4275,7 +4177,9 @@
       <c r="G95" t="n">
         <v>87.745</v>
       </c>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>87.76349999999999</v>
+      </c>
       <c r="I95" t="n">
         <v>99.73905000000001</v>
       </c>
@@ -4284,9 +4188,6 @@
           <t>2024079-00</t>
         </is>
       </c>
-      <c r="K95" t="n">
-        <v>87.76349999999999</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4316,7 +4217,9 @@
       <c r="G96" t="n">
         <v>87.745</v>
       </c>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>87.79810000000001</v>
+      </c>
       <c r="I96" t="n">
         <v>99.95329</v>
       </c>
@@ -4325,9 +4228,6 @@
           <t>2024080-00</t>
         </is>
       </c>
-      <c r="K96" t="n">
-        <v>87.79810000000001</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4357,7 +4257,9 @@
       <c r="G97" t="n">
         <v>87.745</v>
       </c>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>87.74979999999999</v>
+      </c>
       <c r="I97" t="n">
         <v>99.23994</v>
       </c>
@@ -4366,9 +4268,6 @@
           <t>2024081-00</t>
         </is>
       </c>
-      <c r="K97" t="n">
-        <v>87.74979999999999</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4398,7 +4297,9 @@
       <c r="G98" t="n">
         <v>87.745</v>
       </c>
-      <c r="H98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>87.8479</v>
+      </c>
       <c r="I98" t="n">
         <v>100.13137</v>
       </c>
@@ -4407,9 +4308,6 @@
           <t>2024082-00</t>
         </is>
       </c>
-      <c r="K98" t="n">
-        <v>87.8479</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4439,7 +4337,9 @@
       <c r="G99" t="n">
         <v>87.745</v>
       </c>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>87.81699999999999</v>
+      </c>
       <c r="I99" t="n">
         <v>99.99890000000001</v>
       </c>
@@ -4448,9 +4348,6 @@
           <t>2024083-00</t>
         </is>
       </c>
-      <c r="K99" t="n">
-        <v>87.81699999999999</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4480,7 +4377,9 @@
       <c r="G100" t="n">
         <v>87.745</v>
       </c>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>87.8086</v>
+      </c>
       <c r="I100" t="n">
         <v>99.97789</v>
       </c>
@@ -4489,9 +4388,6 @@
           <t>2024084-00</t>
         </is>
       </c>
-      <c r="K100" t="n">
-        <v>87.8086</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4521,7 +4417,9 @@
       <c r="G101" t="n">
         <v>87.745</v>
       </c>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>87.816</v>
+      </c>
       <c r="I101" t="n">
         <v>100.1349</v>
       </c>
@@ -4530,9 +4428,6 @@
           <t>2024085-00</t>
         </is>
       </c>
-      <c r="K101" t="n">
-        <v>87.816</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4562,7 +4457,9 @@
       <c r="G102" t="n">
         <v>87.745</v>
       </c>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>87.75700000000001</v>
+      </c>
       <c r="I102" t="n">
         <v>99.79886999999999</v>
       </c>
@@ -4571,9 +4468,6 @@
           <t>2024086-00</t>
         </is>
       </c>
-      <c r="K102" t="n">
-        <v>87.75700000000001</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4603,7 +4497,9 @@
       <c r="G103" t="n">
         <v>87.745</v>
       </c>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>87.9456</v>
+      </c>
       <c r="I103" t="n">
         <v>100.16891</v>
       </c>
@@ -4612,9 +4508,6 @@
           <t>2024087-00</t>
         </is>
       </c>
-      <c r="K103" t="n">
-        <v>87.9456</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4644,7 +4537,9 @@
       <c r="G104" t="n">
         <v>87.745</v>
       </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>87.749</v>
+      </c>
       <c r="I104" t="n">
         <v>99.64337999999999</v>
       </c>
@@ -4653,9 +4548,6 @@
           <t>2024088-00</t>
         </is>
       </c>
-      <c r="K104" t="n">
-        <v>87.749</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4685,7 +4577,9 @@
       <c r="G105" t="n">
         <v>87.745</v>
       </c>
-      <c r="H105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>87.7761</v>
+      </c>
       <c r="I105" t="n">
         <v>100.02779</v>
       </c>
@@ -4694,9 +4588,6 @@
           <t>2024089-00</t>
         </is>
       </c>
-      <c r="K105" t="n">
-        <v>87.7761</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4726,7 +4617,9 @@
       <c r="G106" t="n">
         <v>87.745</v>
       </c>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>87.7514</v>
+      </c>
       <c r="I106" t="n">
         <v>99.59647</v>
       </c>
@@ -4735,9 +4628,6 @@
           <t>2024090-00</t>
         </is>
       </c>
-      <c r="K106" t="n">
-        <v>87.7514</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4767,7 +4657,9 @@
       <c r="G107" t="n">
         <v>87.745</v>
       </c>
-      <c r="H107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>87.75020000000001</v>
+      </c>
       <c r="I107" t="n">
         <v>100.23977</v>
       </c>
@@ -4776,9 +4668,6 @@
           <t>2024091-00</t>
         </is>
       </c>
-      <c r="K107" t="n">
-        <v>87.75020000000001</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4808,7 +4697,9 @@
       <c r="G108" t="n">
         <v>87.745</v>
       </c>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>87.9007</v>
+      </c>
       <c r="I108" t="n">
         <v>99.53427000000001</v>
       </c>
@@ -4817,9 +4708,6 @@
           <t>2024092-00</t>
         </is>
       </c>
-      <c r="K108" t="n">
-        <v>87.9007</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4849,7 +4737,9 @@
       <c r="G109" t="n">
         <v>87.745</v>
       </c>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>87.8891</v>
+      </c>
       <c r="I109" t="n">
         <v>100.09861</v>
       </c>
@@ -4858,9 +4748,6 @@
           <t>2024093-00</t>
         </is>
       </c>
-      <c r="K109" t="n">
-        <v>87.8891</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4890,7 +4777,9 @@
       <c r="G110" t="n">
         <v>87.745</v>
       </c>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>87.81740000000001</v>
+      </c>
       <c r="I110" t="n">
         <v>99.63171</v>
       </c>
@@ -4899,9 +4788,6 @@
           <t>2024094-00</t>
         </is>
       </c>
-      <c r="K110" t="n">
-        <v>87.81740000000001</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4931,7 +4817,9 @@
       <c r="G111" t="n">
         <v>87.745</v>
       </c>
-      <c r="H111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>87.7534</v>
+      </c>
       <c r="I111" t="n">
         <v>99.72369999999999</v>
       </c>
@@ -4940,9 +4828,6 @@
           <t>2024095-00</t>
         </is>
       </c>
-      <c r="K111" t="n">
-        <v>87.7534</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4972,7 +4857,9 @@
       <c r="G112" t="n">
         <v>87.745</v>
       </c>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>87.90770000000001</v>
+      </c>
       <c r="I112" t="n">
         <v>100.28907</v>
       </c>
@@ -4981,9 +4868,6 @@
           <t>2024096-00</t>
         </is>
       </c>
-      <c r="K112" t="n">
-        <v>87.90770000000001</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5013,7 +4897,9 @@
       <c r="G113" t="n">
         <v>87.745</v>
       </c>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>87.7813</v>
+      </c>
       <c r="I113" t="n">
         <v>100.33726</v>
       </c>
@@ -5022,9 +4908,6 @@
           <t>2024097-00</t>
         </is>
       </c>
-      <c r="K113" t="n">
-        <v>87.7813</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5054,7 +4937,9 @@
       <c r="G114" t="n">
         <v>87.745</v>
       </c>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>87.79179999999999</v>
+      </c>
       <c r="I114" t="n">
         <v>99.87795</v>
       </c>
@@ -5063,9 +4948,6 @@
           <t>2024098-00</t>
         </is>
       </c>
-      <c r="K114" t="n">
-        <v>87.79179999999999</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5095,7 +4977,9 @@
       <c r="G115" t="n">
         <v>87.745</v>
       </c>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>87.8039</v>
+      </c>
       <c r="I115" t="n">
         <v>100.23076</v>
       </c>
@@ -5103,9 +4987,6 @@
         <is>
           <t>2024099-00</t>
         </is>
-      </c>
-      <c r="K115" t="n">
-        <v>87.8039</v>
       </c>
     </row>
   </sheetData>

--- a/2024_전기공사_통합데이터.xlsx
+++ b/2024_전기공사_통합데이터.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,6 +4989,186 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>생활SOC 학교시설 복합화(대전고) 사업 전기공사</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>대전광역시</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1107821000</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1010297523</v>
+      </c>
+      <c r="F116" t="n">
+        <v>913733286</v>
+      </c>
+      <c r="G116" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H116" t="n">
+        <v>90.44199999999999</v>
+      </c>
+      <c r="I116" t="n">
+        <v>91.1968199736239</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026년 공원 전기시설 보수 단가공사(북부권역)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>경기도 평택시</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>16687216</v>
+      </c>
+      <c r="E117" t="n">
+        <v>16687216</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15050034</v>
+      </c>
+      <c r="G117" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H117" t="n">
+        <v>90.18899999999999</v>
+      </c>
+      <c r="I117" t="n">
+        <v>100</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>나운3동 SOC복합시설 조성 전기공사 감리용역</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>전북특별자치도 군산시</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>42938988</v>
+      </c>
+      <c r="E118" t="n">
+        <v>42938988</v>
+      </c>
+      <c r="F118" t="n">
+        <v>37821520</v>
+      </c>
+      <c r="G118" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H118" t="n">
+        <v>88.08199999999999</v>
+      </c>
+      <c r="I118" t="n">
+        <v>100</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>삼척 임원출장소 신축공사[전기공사]</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>강원특별자치도 삼척시</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>385918487</v>
+      </c>
+      <c r="E119" t="n">
+        <v>385918487</v>
+      </c>
+      <c r="F119" t="n">
+        <v>348947496</v>
+      </c>
+      <c r="G119" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H119" t="n">
+        <v>90.42</v>
+      </c>
+      <c r="I119" t="n">
+        <v>100</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>발연리(계룡아파트 주변)도로(중2-23호) 전기공사</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>충청남도 예산군</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>84450000</v>
+      </c>
+      <c r="E120" t="n">
+        <v>83852442</v>
+      </c>
+      <c r="F120" t="n">
+        <v>75716240</v>
+      </c>
+      <c r="G120" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H120" t="n">
+        <v>90.297</v>
+      </c>
+      <c r="I120" t="n">
+        <v>99.29241207815276</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2024_전기공사_통합데이터.xlsx
+++ b/2024_전기공사_통합데이터.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>입찰공고번호</t>
+          <t>비고</t>
         </is>
       </c>
     </row>
@@ -5168,6 +5168,258 @@
         <v>99.29241207815276</v>
       </c>
       <c r="J120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>당진중학교 외 2교 전기차충전시설 설치 전기공사</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>충청남도당진교육지원청</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>29592000</v>
+      </c>
+      <c r="E121" t="n">
+        <v>29525874</v>
+      </c>
+      <c r="F121" t="n">
+        <v>26656255</v>
+      </c>
+      <c r="G121" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H121" t="n">
+        <v>90.28100000000001</v>
+      </c>
+      <c r="I121" t="n">
+        <v>99.77654095701541</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>구미교육지원청 청사 남측 부출입구 신설 전기공사</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>경상북도구미교육지원청</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>59631000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>59678642</v>
+      </c>
+      <c r="F122" t="n">
+        <v>53747182</v>
+      </c>
+      <c r="G122" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H122" t="n">
+        <v>90.06100000000001</v>
+      </c>
+      <c r="I122" t="n">
+        <v>100.0798946856501</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>여좌천 일원 보행등 보수 전기공사</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>경상남도 창원시 진해구</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>90264000</v>
+      </c>
+      <c r="E123" t="n">
+        <v>85919373</v>
+      </c>
+      <c r="F123" t="n">
+        <v>77525910</v>
+      </c>
+      <c r="G123" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H123" t="n">
+        <v>90.23099999999999</v>
+      </c>
+      <c r="I123" t="n">
+        <v>95.18675551714969</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>군서초 후관동 화장실개조 및 급식실동 창고 증축 전기공사</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>전라남도영광교육지원청</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>35207000</v>
+      </c>
+      <c r="E124" t="n">
+        <v>35176184</v>
+      </c>
+      <c r="F124" t="n">
+        <v>31736657</v>
+      </c>
+      <c r="G124" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H124" t="n">
+        <v>90.22199999999999</v>
+      </c>
+      <c r="I124" t="n">
+        <v>99.91247195160054</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>순천부영초 외 4교 내진보강 외 3건 전기공사</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>전라남도순천교육지원청</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>48978000</v>
+      </c>
+      <c r="E125" t="n">
+        <v>49241546</v>
+      </c>
+      <c r="F125" t="n">
+        <v>44459700</v>
+      </c>
+      <c r="G125" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H125" t="n">
+        <v>90.289</v>
+      </c>
+      <c r="I125" t="n">
+        <v>100.5380905712769</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>해양수련원 조리실 환기설비개선 전기공사</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>충청남도보령교육지원청</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>33114000</v>
+      </c>
+      <c r="E126" t="n">
+        <v>33070595</v>
+      </c>
+      <c r="F126" t="n">
+        <v>29869031</v>
+      </c>
+      <c r="G126" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H126" t="n">
+        <v>90.319</v>
+      </c>
+      <c r="I126" t="n">
+        <v>99.86892251011656</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>광주자연과학고 노후 급식실 환경개선 전기공사 감리용역</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>광주광역시교육청</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>14760428</v>
+      </c>
+      <c r="E127" t="n">
+        <v>14760428</v>
+      </c>
+      <c r="F127" t="n">
+        <v>13290290</v>
+      </c>
+      <c r="G127" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H127" t="n">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="I127" t="n">
+        <v>100</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2024_전기공사_통합데이터.xlsx
+++ b/2024_전기공사_통합데이터.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>비고</t>
+          <t>입찰공고번호</t>
         </is>
       </c>
     </row>

--- a/2024_전기공사_통합데이터.xlsx
+++ b/2024_전기공사_통합데이터.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5421,6 +5421,186 @@
       </c>
       <c r="J127" t="inlineStr"/>
     </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>대구보훈병원 시권동 증축사업(전기)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>한국보훈복지의료공단 대구보훈병원</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>3081793470</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3081793470</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2700698890</v>
+      </c>
+      <c r="G128" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H128" t="n">
+        <v>87.634</v>
+      </c>
+      <c r="I128" t="n">
+        <v>100</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>영생고등학교 고교학점제 공간 조성 사업 전기 공사</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>경기도교육청 영생고등학교</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>281355000</v>
+      </c>
+      <c r="E129" t="n">
+        <v>283090782</v>
+      </c>
+      <c r="F129" t="n">
+        <v>255874435</v>
+      </c>
+      <c r="G129" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H129" t="n">
+        <v>90.386</v>
+      </c>
+      <c r="I129" t="n">
+        <v>100.6169366103321</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>어룡초 등 4교(계수초, 신암초, 광주농성초) 천장보수 전기공사 수의계약 안내공고</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>광주광역시교육청 광주광역시서부교육지원청</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>27918000</v>
+      </c>
+      <c r="E130" t="n">
+        <v>28128045</v>
+      </c>
+      <c r="F130" t="n">
+        <v>25297802</v>
+      </c>
+      <c r="G130" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H130" t="n">
+        <v>89.938</v>
+      </c>
+      <c r="I130" t="n">
+        <v>100.7523640661938</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>(가칭)경상북도교육청 환경교육센터 건립 전기공사(계속비)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>경상북도교육청</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>842505882</v>
+      </c>
+      <c r="E131" t="n">
+        <v>842505882</v>
+      </c>
+      <c r="F131" t="n">
+        <v>762198222</v>
+      </c>
+      <c r="G131" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H131" t="n">
+        <v>90.468</v>
+      </c>
+      <c r="I131" t="n">
+        <v>100</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>대구여자상업고등학교 고교학점제 공간조성 리모델링 및 직업계고 재구조화사업 전기공사 입찰 공고</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>대구광역시교육청 대구여자상업고등학교</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>284405000</v>
+      </c>
+      <c r="E132" t="n">
+        <v>280944950</v>
+      </c>
+      <c r="F132" t="n">
+        <v>253965807</v>
+      </c>
+      <c r="G132" t="n">
+        <v>87.745</v>
+      </c>
+      <c r="H132" t="n">
+        <v>90.39700000000001</v>
+      </c>
+      <c r="I132" t="n">
+        <v>98.78340746470701</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
